--- a/data_email_benar.xlsx
+++ b/data_email_benar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasyi\OneDrive\Desktop\fuzzy_email_match\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4866F7-BF26-4C65-AA39-C28CC87D2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7688EB35-F121-4003-81F7-9FE9EED74936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" firstSheet="5" activeTab="11" xr2:uid="{010A4B07-8084-4ACE-9ACE-5E00496B7E5B}"/>
+    <workbookView xWindow="5340" yWindow="1710" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="11" xr2:uid="{010A4B07-8084-4ACE-9ACE-5E00496B7E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="XII-1" sheetId="1" r:id="rId1"/>
@@ -2658,11 +2658,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3110,7 +3111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD75283A-18D8-43E6-8608-576B441EE672}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -3782,13 +3783,13 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3798,7 +3799,7 @@
       <c r="B1" t="s">
         <v>827</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>828</v>
       </c>
       <c r="D1" t="s">
@@ -3815,7 +3816,7 @@
       <c r="B2" t="s">
         <v>615</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>616</v>
       </c>
       <c r="D2" t="s">
@@ -3835,7 +3836,7 @@
       <c r="B3" t="s">
         <v>618</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>619</v>
       </c>
       <c r="D3" t="s">
@@ -3859,7 +3860,7 @@
       <c r="B4" t="s">
         <v>620</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>621</v>
       </c>
       <c r="D4" t="s">
@@ -3883,7 +3884,7 @@
       <c r="B5" t="s">
         <v>622</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>623</v>
       </c>
       <c r="D5" t="s">
@@ -3900,7 +3901,7 @@
       <c r="B6" t="s">
         <v>624</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>625</v>
       </c>
       <c r="D6" t="s">
@@ -3917,7 +3918,7 @@
       <c r="B7" t="s">
         <v>626</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>627</v>
       </c>
       <c r="D7" t="s">
@@ -3934,7 +3935,7 @@
       <c r="B8" t="s">
         <v>628</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>629</v>
       </c>
       <c r="D8" t="s">
@@ -3951,7 +3952,7 @@
       <c r="B9" t="s">
         <v>630</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>631</v>
       </c>
       <c r="D9" t="s">
@@ -3968,7 +3969,7 @@
       <c r="B10" t="s">
         <v>632</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>633</v>
       </c>
       <c r="D10" t="s">
@@ -3985,7 +3986,7 @@
       <c r="B11" t="s">
         <v>634</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>635</v>
       </c>
       <c r="D11" t="s">
@@ -4002,7 +4003,7 @@
       <c r="B12" t="s">
         <v>636</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>637</v>
       </c>
       <c r="D12" t="s">
@@ -4019,7 +4020,7 @@
       <c r="B13" t="s">
         <v>638</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>639</v>
       </c>
       <c r="D13" t="s">
@@ -4036,7 +4037,7 @@
       <c r="B14" t="s">
         <v>640</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>641</v>
       </c>
       <c r="D14" t="s">
@@ -4053,7 +4054,7 @@
       <c r="B15" t="s">
         <v>642</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>643</v>
       </c>
       <c r="D15" t="s">
@@ -4070,7 +4071,7 @@
       <c r="B16" t="s">
         <v>644</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>645</v>
       </c>
       <c r="D16" t="s">
@@ -4087,7 +4088,7 @@
       <c r="B17" t="s">
         <v>646</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>647</v>
       </c>
       <c r="D17" t="s">
@@ -4104,7 +4105,7 @@
       <c r="B18" t="s">
         <v>648</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>649</v>
       </c>
       <c r="D18" t="s">
@@ -4121,7 +4122,7 @@
       <c r="B19" t="s">
         <v>650</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>651</v>
       </c>
       <c r="D19" t="s">
@@ -4138,7 +4139,7 @@
       <c r="B20" t="s">
         <v>652</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>653</v>
       </c>
       <c r="D20" t="s">
@@ -4155,7 +4156,7 @@
       <c r="B21" t="s">
         <v>654</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>655</v>
       </c>
       <c r="D21" t="s">
@@ -4172,7 +4173,7 @@
       <c r="B22" t="s">
         <v>656</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>657</v>
       </c>
       <c r="D22" t="s">
@@ -4189,7 +4190,7 @@
       <c r="B23" t="s">
         <v>658</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>659</v>
       </c>
       <c r="D23" t="s">
@@ -4206,7 +4207,7 @@
       <c r="B24" t="s">
         <v>660</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>661</v>
       </c>
       <c r="D24" t="s">
@@ -4223,7 +4224,7 @@
       <c r="B25" t="s">
         <v>662</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>663</v>
       </c>
       <c r="D25" t="s">
@@ -4240,7 +4241,7 @@
       <c r="B26" t="s">
         <v>664</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>665</v>
       </c>
       <c r="D26" t="s">
@@ -4257,7 +4258,7 @@
       <c r="B27" t="s">
         <v>666</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>667</v>
       </c>
       <c r="D27" t="s">
@@ -4274,7 +4275,7 @@
       <c r="B28" t="s">
         <v>668</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>669</v>
       </c>
       <c r="D28" t="s">
@@ -4291,7 +4292,7 @@
       <c r="B29" t="s">
         <v>670</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>671</v>
       </c>
       <c r="D29" t="s">
@@ -4308,7 +4309,7 @@
       <c r="B30" t="s">
         <v>672</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>673</v>
       </c>
       <c r="D30" t="s">
@@ -4325,7 +4326,7 @@
       <c r="B31" t="s">
         <v>674</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>675</v>
       </c>
       <c r="D31" t="s">
@@ -4342,7 +4343,7 @@
       <c r="B32" t="s">
         <v>676</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>677</v>
       </c>
       <c r="D32" t="s">
@@ -4359,7 +4360,7 @@
       <c r="B33" t="s">
         <v>678</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>679</v>
       </c>
       <c r="D33" t="s">
@@ -4376,7 +4377,7 @@
       <c r="B34" t="s">
         <v>680</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>681</v>
       </c>
       <c r="D34" t="s">
@@ -4393,7 +4394,7 @@
       <c r="B35" t="s">
         <v>682</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>683</v>
       </c>
       <c r="D35" t="s">
@@ -4410,7 +4411,7 @@
       <c r="B36" t="s">
         <v>684</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>685</v>
       </c>
       <c r="D36" t="s">
@@ -4439,7 +4440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB81C89B-E599-4AA9-91EF-663379EDCAEE}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -5073,7 +5074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AFD29A-A357-4E34-B966-C90BCC3D762B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -5744,8 +5745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D8195C-085C-4387-97E1-52FA702FE181}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6419,7 +6420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCD975D-CEB2-4AC5-8333-2348C4F426D0}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -7077,8 +7078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881AFA78-33AC-432D-9803-1CCA5D1ECEA3}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7748,7 +7749,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8357,7 +8358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803F460-C362-4A43-947A-FBD614B8FC3F}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -9625,8 +9626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB2E3EC-519D-4A4B-8075-E85015921DB1}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10295,7 +10296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389AA3B2-8E73-465A-BB45-610A00C8E1C0}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
